--- a/data spreadsheets/director.xlsx
+++ b/data spreadsheets/director.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238E88E6-7C0C-4B76-821E-428923E05813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D79080A-FE69-4C45-8E27-BB7921819C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69345" yWindow="2970" windowWidth="11565" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,96 +53,54 @@
     <t>William A. Wellman</t>
   </si>
   <si>
-    <t>February 29, 1896</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
-    <t>February 10, 1888</t>
-  </si>
-  <si>
     <t>Harry Beaumont</t>
   </si>
   <si>
     <t>Lewis Milestone</t>
   </si>
   <si>
-    <t>September 30, 1895</t>
-  </si>
-  <si>
     <t>Wesley Ruggles</t>
   </si>
   <si>
-    <t>June 11, 1889</t>
-  </si>
-  <si>
     <t>Edmund Goulding</t>
   </si>
   <si>
-    <t>20 March 1891</t>
-  </si>
-  <si>
     <t>Frank Lloyd</t>
   </si>
   <si>
-    <t>2 February 1886</t>
-  </si>
-  <si>
     <t>Frank Capra</t>
   </si>
   <si>
-    <t>May 18, 1897</t>
-  </si>
-  <si>
     <t>Robert Z. Leonard</t>
   </si>
   <si>
-    <t>October 7, 1889</t>
-  </si>
-  <si>
     <t>William Dieterle</t>
   </si>
   <si>
-    <t>July 15, 1893</t>
-  </si>
-  <si>
     <t>Victor Fleming</t>
   </si>
   <si>
-    <t>February 23, 1889</t>
-  </si>
-  <si>
     <t>Alfred Hitchcock</t>
   </si>
   <si>
-    <t>13 August 1899</t>
-  </si>
-  <si>
     <t>John Ford</t>
   </si>
   <si>
-    <t>February 1, 1894</t>
-  </si>
-  <si>
     <t>William Wyler</t>
   </si>
   <si>
     <t>Michael Curtiz</t>
   </si>
   <si>
-    <t>December 24, 1886</t>
-  </si>
-  <si>
     <t>Leo McCarey</t>
   </si>
   <si>
-    <t>October 3, 1898</t>
-  </si>
-  <si>
     <t>Billy Wilder</t>
   </si>
   <si>
@@ -164,9 +122,6 @@
     <t>Cecil B. DeMille</t>
   </si>
   <si>
-    <t>August 12, 1881</t>
-  </si>
-  <si>
     <t>Fred Zinnemann</t>
   </si>
   <si>
@@ -188,9 +143,6 @@
     <t>George Cukor</t>
   </si>
   <si>
-    <t>July 7, 1899</t>
-  </si>
-  <si>
     <t>Norman Jewison</t>
   </si>
   <si>
@@ -348,15 +300,60 @@
   </si>
   <si>
     <t>Asian</t>
+  </si>
+  <si>
+    <t>02/29/1896</t>
+  </si>
+  <si>
+    <t>7/7/1899</t>
+  </si>
+  <si>
+    <t>08/12/1881</t>
+  </si>
+  <si>
+    <t>10/3/1898</t>
+  </si>
+  <si>
+    <t>12/24/1886</t>
+  </si>
+  <si>
+    <t>2/1/1894</t>
+  </si>
+  <si>
+    <t>8/13/1899</t>
+  </si>
+  <si>
+    <t>2/23/1889</t>
+  </si>
+  <si>
+    <t>7/15/1893</t>
+  </si>
+  <si>
+    <t>10/7/1889</t>
+  </si>
+  <si>
+    <t>5/18/1897</t>
+  </si>
+  <si>
+    <t>2/2/1886</t>
+  </si>
+  <si>
+    <t>3/20/1891</t>
+  </si>
+  <si>
+    <t>6/11/1889</t>
+  </si>
+  <si>
+    <t>9/30/1895</t>
+  </si>
+  <si>
+    <t>2/10/1888</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,10 +383,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,13 +680,13 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="22.15625" customWidth="1"/>
-    <col min="3" max="3" width="16.62890625" customWidth="1"/>
+    <col min="3" max="3" width="32.83984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -700,7 +696,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -718,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -733,16 +729,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -751,16 +747,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -769,16 +765,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -787,16 +783,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -805,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -823,16 +819,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -841,16 +837,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -859,16 +855,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -877,16 +873,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -895,16 +891,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -913,16 +909,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -931,16 +927,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
         <v>913</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -949,16 +945,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -967,16 +963,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -985,16 +981,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
         <v>2365</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1003,16 +999,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
         <v>3538</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1021,16 +1017,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
         <v>2699</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1039,16 +1035,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
         <v>2998</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1057,16 +1053,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
         <v>3330</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1075,16 +1071,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
         <v>1155</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1093,16 +1089,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1111,16 +1107,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
         <v>2676</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1129,16 +1125,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
         <v>7335</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1147,16 +1143,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="2">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
         <v>7335</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1165,16 +1161,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="2">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
         <v>3007</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1183,16 +1179,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
         <v>5367</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1201,16 +1197,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
         <v>10384</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1219,16 +1215,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" t="s">
-        <v>51</v>
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1237,16 +1233,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="2">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
         <v>9699</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1255,16 +1251,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="2">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
         <v>2556</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1273,16 +1269,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="2">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
         <v>9544</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1291,16 +1287,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="2">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
         <v>7456</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1309,16 +1305,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="2">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
         <v>13025</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1327,16 +1323,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="2">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
         <v>14342</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1345,16 +1341,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="2">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
         <v>8025</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1363,16 +1359,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="2">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
         <v>11737</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1381,16 +1377,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="2">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
         <v>13139</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1399,16 +1395,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
         <v>13119</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1417,16 +1413,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="2">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
         <v>14279</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1435,16 +1431,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="2">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
         <v>11961</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1453,16 +1449,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="2">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
         <v>13380</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1471,16 +1467,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="2">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1">
         <v>13387</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1489,16 +1485,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="2">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
         <v>8642</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1507,16 +1503,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="2">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
         <v>14740</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1525,16 +1521,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="2">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
         <v>12601</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1543,16 +1539,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="2">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1">
         <v>17060</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1561,16 +1557,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="2">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1">
         <v>15051</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1579,16 +1575,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="2">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
         <v>15437</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1597,16 +1593,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1">
         <v>14839</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1615,16 +1611,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="2">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1">
         <v>20107</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1633,16 +1629,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="2">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1">
         <v>16124</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1651,16 +1647,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="2">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1">
         <v>11109</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1669,16 +1665,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="2">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
         <v>17154</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1687,16 +1683,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="2">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1">
         <v>19128</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1705,16 +1701,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="2">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1">
         <v>20457</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1723,16 +1719,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="2">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1">
         <v>19730</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1741,16 +1737,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="2">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1">
         <v>19952</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1759,16 +1755,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="2">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1">
         <v>17996</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1777,16 +1773,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="2">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1">
         <v>23955</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1795,16 +1791,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" s="2">
+        <v>68</v>
+      </c>
+      <c r="C62" s="1">
         <v>13849</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1813,16 +1809,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="2">
+        <v>69</v>
+      </c>
+      <c r="C63" s="1">
         <v>19784</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1831,16 +1827,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="2">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1">
         <v>22206</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1849,16 +1845,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C65" s="2">
+        <v>71</v>
+      </c>
+      <c r="C65" s="1">
         <v>22585</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1867,16 +1863,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="2">
+        <v>72</v>
+      </c>
+      <c r="C66" s="1">
         <v>19428</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1885,34 +1881,34 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="2">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1">
         <v>15662</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <f t="shared" ref="A68:A85" si="1" xml:space="preserve"> A67 + 1</f>
+        <f t="shared" ref="A68:A80" si="1" xml:space="preserve"> A67 + 1</f>
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="2">
+        <v>74</v>
+      </c>
+      <c r="C68" s="1">
         <v>20057</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1921,16 +1917,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C69" s="2">
+        <v>75</v>
+      </c>
+      <c r="C69" s="1">
         <v>20748</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1939,16 +1935,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="2">
+        <v>76</v>
+      </c>
+      <c r="C70" s="1">
         <v>18959</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1957,16 +1953,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="2">
+        <v>77</v>
+      </c>
+      <c r="C71" s="1">
         <v>26577</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1975,16 +1971,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="2">
+        <v>78</v>
+      </c>
+      <c r="C72" s="1">
         <v>24560</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1993,16 +1989,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" s="2">
+        <v>79</v>
+      </c>
+      <c r="C73" s="1">
         <v>26526</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2011,16 +2007,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="2">
+        <v>80</v>
+      </c>
+      <c r="C74" s="1">
         <v>25485</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2029,16 +2025,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="2">
+        <v>81</v>
+      </c>
+      <c r="C75" s="1">
         <v>23238</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2047,16 +2043,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="2">
+        <v>82</v>
+      </c>
+      <c r="C76" s="1">
         <v>24265</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2065,16 +2061,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="2">
+        <v>83</v>
+      </c>
+      <c r="C77" s="1">
         <v>29178</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2083,16 +2079,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="2">
+        <v>84</v>
+      </c>
+      <c r="C78" s="1">
         <v>23659</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2101,16 +2097,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="2">
+        <v>85</v>
+      </c>
+      <c r="C79" s="1">
         <v>20806</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2119,16 +2115,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="2">
+        <v>86</v>
+      </c>
+      <c r="C80" s="1">
         <v>25460</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
